--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3679381.769301516</v>
+        <v>3673660.15733363</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>147.9374807465693</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>328.4378163475058</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>248.0596779397532</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -916,7 +916,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>25.39251542923536</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>155.3395533163062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>30.54110646053131</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,25 +1098,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.31656064018903</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.05983722953789</v>
+        <v>139.0763275237592</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733165</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>205.3743261851591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1426,7 +1426,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.07192456522823</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.7277232643819</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,19 +1821,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>126.0224021978045</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479907</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1900,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589043</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.119524121467</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534535</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.576929772926</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>48.41121295984393</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.29607088177457</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>138.3467445476597</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>42.73127891508068</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>30.21367771259431</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>168.6323597995799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>100.3565319570699</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,13 +3246,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>166.3722993053912</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.921725653454</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>67.7250295280906</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.39731202369094</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.00953837033235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881751</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47141043475441</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>37.6339454523855</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>32.14358419018372</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>126.5660981224325</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>997.2466063457011</v>
+        <v>546.109828622464</v>
       </c>
       <c r="C2" t="n">
-        <v>628.2840894052895</v>
+        <v>546.109828622464</v>
       </c>
       <c r="D2" t="n">
-        <v>628.2840894052895</v>
+        <v>546.109828622464</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>546.109828622464</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>539.1643278732605</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1773.985778385635</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1383.846446409823</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.4755035807</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>959.5129866402885</v>
+        <v>785.9213106858008</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>427.6556120790503</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>427.6556120790503</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>420.7101113298468</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>406.7867072684377</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>79.59198730444058</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628377</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2224.752638628377</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1871.983983358263</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1871.983983358263</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.075343644822</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>678.1902866356228</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>678.1902866356228</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>389.0166762901907</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>389.0166762901907</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857192</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2567.312485155243</v>
+        <v>2556.667952105334</v>
       </c>
       <c r="T8" t="n">
-        <v>2348.677818127306</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="U8" t="n">
-        <v>2348.677818127306</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857192</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857192</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857192</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>261.391796148808</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5044,25 +5044,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>786.6724891157196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5074,19 +5074,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
@@ -5120,19 +5120,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>489.220537824527</v>
+        <v>879.542498853856</v>
       </c>
       <c r="C13" t="n">
-        <v>489.220537824527</v>
+        <v>710.6063159259492</v>
       </c>
       <c r="D13" t="n">
-        <v>339.1038984121913</v>
+        <v>560.4896765136134</v>
       </c>
       <c r="E13" t="n">
-        <v>339.1038984121913</v>
+        <v>412.5765829312203</v>
       </c>
       <c r="F13" t="n">
-        <v>339.1038984121913</v>
+        <v>265.6866354333099</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
         <v>192.8867116300491</v>
@@ -5232,19 +5232,19 @@
         <v>1764.65758193153</v>
       </c>
       <c r="U13" t="n">
-        <v>1482.104326108922</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V13" t="n">
-        <v>1227.419837903035</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W13" t="n">
-        <v>938.0026678660745</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="X13" t="n">
-        <v>710.0131169680571</v>
+        <v>1281.983542827626</v>
       </c>
       <c r="Y13" t="n">
-        <v>489.220537824527</v>
+        <v>1061.190963684096</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5266,13 +5266,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
@@ -5281,25 +5281,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427193</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L14" t="n">
-        <v>1390.197710791128</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M14" t="n">
-        <v>2368.748013620956</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N14" t="n">
-        <v>2915.526830679739</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3795.491481009194</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
@@ -5357,13 +5357,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5372,25 +5372,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>633.9069394924948</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>485.9938459101016</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258583</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258583</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1163.643339221623</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1036.347983466265</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.5554043227345</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="17">
@@ -5494,16 +5494,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5512,49 +5512,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.926319971175</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2064.476622801003</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3044.22889502765</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906987</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.556453353933</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862921</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3527.225701553766</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C19" t="n">
-        <v>3358.289518625859</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D19" t="n">
-        <v>3358.289518625859</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E19" t="n">
-        <v>3210.376425043466</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F19" t="n">
-        <v>3063.486477545556</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>3063.486477545556</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>2917.269290763414</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>3166.379106159226</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>3482.938904607722</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>3827.095950207271</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>4168.504326913136</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>4467.833925833549</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>4700.441426267208</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>4778.051722419723</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>4778.051722419723</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>4668.840081892989</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T19" t="n">
-        <v>4447.073466462514</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U19" t="n">
-        <v>4447.073466462514</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V19" t="n">
-        <v>4447.073466462514</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W19" t="n">
-        <v>4157.656296425554</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X19" t="n">
-        <v>3929.666745527536</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y19" t="n">
-        <v>3708.874166384006</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="20">
@@ -5734,64 +5734,64 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660293</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107239</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862921</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419723</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946818</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.78330633104</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089887</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1426.65449994622</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1137.23732990926</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>909.2477790112422</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>688.4551998677121</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1153.952538678958</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350883</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.23671557753</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086364</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.154595425112</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419657</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446542</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.01948227916</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917027</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809182</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.45176478953</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102195</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324511</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878965</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.91057329702</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.410164773123</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.051722419723</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012239</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505719</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183574</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.75863531799</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086247</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358045</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387559</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.832110204571</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C25" t="n">
-        <v>337.8959272766641</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D25" t="n">
-        <v>187.7792878643284</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839447</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839447</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839447</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839447</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6183,16 +6183,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>1024.21345597245</v>
       </c>
       <c r="W25" t="n">
-        <v>909.2731541783409</v>
+        <v>734.7962859354897</v>
       </c>
       <c r="X25" t="n">
-        <v>909.2731541783409</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.4805750348107</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3496.417082105038</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3999.389552984375</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4394.163919341553</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390116</v>
@@ -6329,16 +6329,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>680.9693001177193</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>680.9693001177193</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>379.6167698340331</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1034.340101969333</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6533,13 +6533,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>805.0466682503443</v>
+        <v>560.0445975595949</v>
       </c>
       <c r="C31" t="n">
-        <v>636.1104853224374</v>
+        <v>391.108414631688</v>
       </c>
       <c r="D31" t="n">
-        <v>485.9938459101016</v>
+        <v>391.108414631688</v>
       </c>
       <c r="E31" t="n">
-        <v>485.9938459101016</v>
+        <v>391.108414631688</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>391.108414631688</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>223.405578006407</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6651,22 +6651,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1667.240599230347</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.904882261075</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>1207.487712224114</v>
+        <v>1190.475192431382</v>
       </c>
       <c r="X31" t="n">
-        <v>1207.487712224114</v>
+        <v>962.4856415333647</v>
       </c>
       <c r="Y31" t="n">
-        <v>986.695133080584</v>
+        <v>741.6930623898346</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,52 +6700,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>301.0727330329178</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>634.8921067227643</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.926319971173</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2064.476622801002</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3044.228895027648</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>706.4876447660638</v>
+        <v>491.7343098287685</v>
       </c>
       <c r="C34" t="n">
-        <v>706.4876447660638</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D34" t="n">
-        <v>556.371005353728</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V34" t="n">
-        <v>1163.957642384228</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W34" t="n">
-        <v>874.540472347267</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X34" t="n">
-        <v>706.4876447660638</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y34" t="n">
-        <v>706.4876447660638</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749765</v>
@@ -6925,7 +6925,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6934,55 +6934,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.926319971173</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M35" t="n">
-        <v>2064.476622801002</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N35" t="n">
-        <v>3044.228895027648</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3458.841887721937</v>
+        <v>500.6091747370274</v>
       </c>
       <c r="C37" t="n">
-        <v>3458.841887721937</v>
+        <v>331.6729918091205</v>
       </c>
       <c r="D37" t="n">
-        <v>3308.725248309602</v>
+        <v>331.6729918091205</v>
       </c>
       <c r="E37" t="n">
-        <v>3160.812154727209</v>
+        <v>331.6729918091205</v>
       </c>
       <c r="F37" t="n">
-        <v>3160.812154727209</v>
+        <v>331.6729918091205</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727209</v>
+        <v>163.9701551838395</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004075</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.768765573601</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U37" t="n">
-        <v>4274.768765573601</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V37" t="n">
-        <v>4020.084277367714</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W37" t="n">
-        <v>3730.667107330753</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="X37" t="n">
-        <v>3502.677556432736</v>
+        <v>903.0502187107973</v>
       </c>
       <c r="Y37" t="n">
-        <v>3458.841887721937</v>
+        <v>682.2576395672671</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2628.734306600803</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,64 +7229,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1644.746393431758</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1100.959038351514</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>811.5418683145538</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>583.5523174165364</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.5523174165364</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7408,55 +7408,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1472.533259768727</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2006.065164440652</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>658.8294814682021</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>489.8932985402952</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>339.7766591279594</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258583</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V43" t="n">
-        <v>1453.060509258583</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W43" t="n">
-        <v>1163.643339221623</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X43" t="n">
-        <v>935.6537883236053</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>714.8612091800752</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>388.5878045036231</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>722.4071781934695</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846824</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7727,13 +7727,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.2108419093666</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C46" t="n">
-        <v>670.2746589814598</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
-        <v>520.158019569124</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E46" t="n">
-        <v>372.2449259867309</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F46" t="n">
-        <v>225.3549784888205</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7809,7 +7809,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1866.513008862231</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1577.410141987875</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V46" t="n">
-        <v>1577.410141987875</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W46" t="n">
-        <v>1287.992971950914</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X46" t="n">
-        <v>1060.003421052897</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.2108419093666</v>
+        <v>613.848518831822</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627882</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>217.5991828955677</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>16.80057335909066</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>248.8012738805294</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>85.51392558917479</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,16 +9886,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>77.35795430877036</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>96.13798426930629</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>16.80057335908884</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>16.8005733590889</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10825,22 +10825,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>123.4719563470478</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>407.3126337606591</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>105.1996354507104</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>93.95388369379999</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>6.484114941230985</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>99.68725319123268</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>91.26811680410414</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23940,16 +23940,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>81.64950120997494</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>203.7264303639841</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>55.1378917647946</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>113.7908987761683</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>124.5155421835472</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24621,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>114.5413372017265</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>83.50528352424809</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>66.89028914155796</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>59.33735608364594</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>77.02998538623018</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>175.1873413284038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.8224418116049</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3605697471829</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>248.5778927532274</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.8822240688445</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>159.6457400831803</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672540.5267530321</v>
+        <v>672540.5267530322</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.305740919</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.3057409194</v>
+        <v>734601.305740919</v>
       </c>
       <c r="G2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="H2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="I2" t="n">
         <v>734601.305740919</v>
       </c>
-      <c r="H2" t="n">
-        <v>734601.3057409194</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>734601.3057409192</v>
       </c>
-      <c r="J2" t="n">
-        <v>734601.3057409193</v>
-      </c>
       <c r="K2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.305740919</v>
       </c>
       <c r="L2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="M2" t="n">
         <v>734601.305740919</v>
       </c>
       <c r="N2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="O2" t="n">
         <v>734601.3057409191</v>
       </c>
-      <c r="O2" t="n">
-        <v>734601.3057409192</v>
-      </c>
       <c r="P2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409191</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918986</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918997</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
@@ -26444,22 +26444,22 @@
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="N4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26481,22 +26481,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371369</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
@@ -26505,13 +26505,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96712.00701061959</v>
+        <v>-96712.00701061968</v>
       </c>
       <c r="C6" t="n">
-        <v>493255.872203925</v>
+        <v>493255.8722039248</v>
       </c>
       <c r="D6" t="n">
-        <v>493255.8722039248</v>
+        <v>493255.8722039247</v>
       </c>
       <c r="E6" t="n">
-        <v>-107308.1188253911</v>
+        <v>-107980.0737276492</v>
       </c>
       <c r="F6" t="n">
-        <v>620069.2951680161</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="G6" t="n">
-        <v>620069.2951680151</v>
+        <v>619397.3402657576</v>
       </c>
       <c r="H6" t="n">
-        <v>620069.2951680159</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="I6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="J6" t="n">
-        <v>443646.075975423</v>
+        <v>442974.1210731647</v>
       </c>
       <c r="K6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657575</v>
       </c>
       <c r="L6" t="n">
-        <v>620069.2951680154</v>
+        <v>619397.3402657576</v>
       </c>
       <c r="M6" t="n">
-        <v>490426.9803290707</v>
+        <v>489755.0254268128</v>
       </c>
       <c r="N6" t="n">
-        <v>620069.2951680155</v>
+        <v>619397.3402657578</v>
       </c>
       <c r="O6" t="n">
-        <v>620069.2951680156</v>
+        <v>619397.3402657576</v>
       </c>
       <c r="P6" t="n">
-        <v>620069.2951680158</v>
+        <v>619397.3402657576</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26804,13 +26804,13 @@
         <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="H4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
-        <v>1194.512930604931</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.287272754555</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>233.9928893256925</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>85.34635367328917</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>38.46332039683779</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>126.5388008156259</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.8983853397474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380965</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>191.8289783098299</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,10 +27864,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>100.3558755794336</v>
+        <v>35.33938528521227</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3051017946056</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>81.1486721514319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-1.988499789114538e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307148</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>507.3053774831311</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>616.3611691149393</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>472.3906877514228</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>756.8542747687485</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>541.104039981507</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,16 +36606,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>328.1522591124898</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>286.9249852380188</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>207.5875743278014</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,22 +37305,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>472.3906877514211</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37329,7 +37329,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>675.7737917599593</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636242</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>862.9027481529911</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9866364194229</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_5_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3673660.15733363</v>
+        <v>3677065.64845808</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>223.1498336210773</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>135.7761742049799</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>25.39251542923536</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>30.60408762095418</v>
       </c>
       <c r="C7" t="n">
-        <v>30.54110646053131</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
-        <v>139.0763275237592</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733165</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>83.58354151325328</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>35.19569619650073</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>72.07192456522823</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>16.53317549809577</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>127.3165365479907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>122.4179473152588</v>
       </c>
       <c r="V25" t="n">
-        <v>138.3467445476597</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>30.21367771259431</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>100.3565319570699</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>67.7250295280906</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,10 +3717,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>2.308339682493927</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>37.6339454523855</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.26879610203982</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>126.5660981224325</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C5" t="n">
-        <v>785.9213106858008</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D5" t="n">
-        <v>427.6556120790503</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E5" t="n">
-        <v>427.6556120790503</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F5" t="n">
-        <v>420.7101113298468</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>406.7867072684377</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>79.59198730444058</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600564</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,19 +4828,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2556.667952105334</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2338.033285077397</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2338.033285077397</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2338.033285077397</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
         <v>2338.033285077397</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4889,37 +4889,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
         <v>99.5995062532301</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>643.7011644960776</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>389.0166762901907</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="11">
@@ -5020,16 +5020,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,7 +5038,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>284.4401654074198</v>
@@ -5056,31 +5056,31 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5141,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5150,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.542498853856</v>
+        <v>300.048425655595</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6063159259492</v>
+        <v>131.1122427276881</v>
       </c>
       <c r="D13" t="n">
-        <v>560.4896765136134</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>412.5765829312203</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>265.6866354333099</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5229,22 +5229,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1509.973093725643</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1281.983542827626</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>1061.190963684096</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814246</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644075</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2638710736754</v>
+        <v>725.3071882816349</v>
       </c>
       <c r="C16" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="D16" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="E16" t="n">
-        <v>263.2638710736754</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1174.089318323182</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>946.0997674251651</v>
       </c>
       <c r="Y16" t="n">
-        <v>263.2638710736754</v>
+        <v>725.3071882816349</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,46 +5521,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5627,7 +5627,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5664,13 +5664,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5731,25 +5731,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>451.8458144277729</v>
@@ -5758,40 +5758,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5861,22 +5861,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998329</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5986,7 +5986,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
         <v>451.8458144277729</v>
@@ -5995,22 +5995,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,16 +6086,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506.8067350374723</v>
+        <v>658.1567207524339</v>
       </c>
       <c r="C25" t="n">
-        <v>506.8067350374723</v>
+        <v>489.220537824527</v>
       </c>
       <c r="D25" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="E25" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G25" t="n">
         <v>339.1038984121913</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384228</v>
+        <v>1832.688973867069</v>
       </c>
       <c r="V25" t="n">
-        <v>1024.21345597245</v>
+        <v>1578.004485661182</v>
       </c>
       <c r="W25" t="n">
-        <v>734.7962859354897</v>
+        <v>1288.587315624221</v>
       </c>
       <c r="X25" t="n">
-        <v>506.8067350374723</v>
+        <v>1060.597764726204</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.8067350374723</v>
+        <v>839.8051855826736</v>
       </c>
     </row>
     <row r="26">
@@ -6217,46 +6217,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6329,10 +6329,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
         <v>1646.988141143014</v>
@@ -6451,64 +6451,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.0445975595949</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>391.108414631688</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D31" t="n">
-        <v>391.108414631688</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E31" t="n">
-        <v>391.108414631688</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>391.108414631688</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>223.405578006407</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1479.892362468343</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1190.475192431382</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>962.4856415333647</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>741.6930623898346</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6709,43 +6709,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,10 +6779,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>491.7343098287685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
         <v>95.56103444839442</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>901.3723255570255</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>673.3827746590082</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>673.3827746590082</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6919,70 +6919,70 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.6091747370274</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>331.6729918091205</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>331.6729918091205</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>331.6729918091205</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>331.6729918091205</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9701551838395</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1385.724257814702</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1131.039769608815</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1131.039769608815</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>903.0502187107973</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>682.2576395672671</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7162,16 +7162,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7180,46 +7180,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>1161.625986139284</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>872.2088161023238</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>644.2192652043065</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>423.4266860607763</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7417,46 +7417,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="42">
@@ -7466,58 +7466,58 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7663,16 +7663,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7727,13 +7727,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>432.2000540015823</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1606.732307116217</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1352.04781891033</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1062.630648873369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>834.6410979753522</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>613.848518831822</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,7 +8704,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>39.4832155777267</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>219.3344627260153</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>113.4197768217116</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>93.95388369379999</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.9898228384952</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>91.26811680410414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>163.7938908903541</v>
       </c>
       <c r="V25" t="n">
-        <v>113.7908987761683</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>148.978024996588</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>114.5413372017265</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>66.89028914155796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>77.02998538623018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>249.8293036413341</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>248.5778927532274</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445293</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>159.6457400831803</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>672540.5267530322</v>
+        <v>672540.5267530321</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244624</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
       </c>
       <c r="E2" t="n">
         <v>734601.305740919</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409191</v>
       </c>
       <c r="G2" t="n">
+        <v>734601.3057409192</v>
+      </c>
+      <c r="H2" t="n">
         <v>734601.3057409191</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="J2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="K2" t="n">
         <v>734601.3057409192</v>
-      </c>
-      <c r="I2" t="n">
-        <v>734601.305740919</v>
-      </c>
-      <c r="J2" t="n">
-        <v>734601.3057409192</v>
-      </c>
-      <c r="K2" t="n">
-        <v>734601.305740919</v>
       </c>
       <c r="L2" t="n">
         <v>734601.3057409191</v>
       </c>
       <c r="M2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="O2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="P2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409188</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="O4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="P4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18148.49231918994</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26524,46 +26524,46 @@
         <v>-96712.00701061968</v>
       </c>
       <c r="C6" t="n">
+        <v>493255.872203925</v>
+      </c>
+      <c r="D6" t="n">
         <v>493255.8722039248</v>
       </c>
-      <c r="D6" t="n">
-        <v>493255.8722039247</v>
-      </c>
       <c r="E6" t="n">
-        <v>-107980.0737276492</v>
+        <v>-107375.314315617</v>
       </c>
       <c r="F6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="G6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="H6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="I6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="J6" t="n">
-        <v>442974.1210731647</v>
+        <v>443578.8804851967</v>
       </c>
       <c r="K6" t="n">
-        <v>619397.3402657575</v>
+        <v>620002.0996777898</v>
       </c>
       <c r="L6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777897</v>
       </c>
       <c r="M6" t="n">
-        <v>489755.0254268128</v>
+        <v>490359.7848388452</v>
       </c>
       <c r="N6" t="n">
-        <v>619397.3402657578</v>
+        <v>620002.09967779</v>
       </c>
       <c r="O6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.09967779</v>
       </c>
       <c r="P6" t="n">
-        <v>619397.3402657576</v>
+        <v>620002.0996777895</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.3731647155137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>271.0998715367315</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>126.5388008156259</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>149.2278925609831</v>
       </c>
       <c r="C7" t="n">
-        <v>136.7057146380965</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>48.19472341080779</v>
       </c>
       <c r="S8" t="n">
-        <v>35.33938528521227</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.3051017946056</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>202.6983327287244</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -33031,7 +33031,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33517,7 +33517,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,7 +35424,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
@@ -35433,7 +35433,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35907,7 +35907,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
@@ -36144,7 +36144,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36381,7 +36381,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,22 +37077,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>591.7850509906382</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37308,19 +37308,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>727.3874636142344</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37548,7 +37548,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37557,16 +37557,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
